--- a/Finflux Automation Excels/Client/4985-ActivateSaving&RD-PayThroughCollectionSheet-VerifyTransaction.xlsx
+++ b/Finflux Automation Excels/Client/4985-ActivateSaving&RD-PayThroughCollectionSheet-VerifyTransaction.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,11 @@
     <sheet name="NewSavingInput" sheetId="3" r:id="rId3"/>
     <sheet name="NewRDInput" sheetId="4" r:id="rId4"/>
     <sheet name="SavingsDeposit" sheetId="5" r:id="rId5"/>
+    <sheet name="Recurring Navigate" sheetId="6" r:id="rId6"/>
+    <sheet name="RD Transaction &amp; TransID" sheetId="7" r:id="rId7"/>
+    <sheet name="Deposit1" sheetId="8" r:id="rId8"/>
+    <sheet name="Saving Transaction &amp; TransID" sheetId="9" r:id="rId9"/>
+    <sheet name="Deposit2" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="87">
   <si>
     <t>CenterName</t>
   </si>
@@ -196,13 +201,94 @@
     <t>selectgroup</t>
   </si>
   <si>
-    <t>Groups4985</t>
-  </si>
-  <si>
-    <t>centers4985</t>
-  </si>
-  <si>
     <t>previewCollectionSheet</t>
+  </si>
+  <si>
+    <t>SavingDepositAmount</t>
+  </si>
+  <si>
+    <t>waittopageload</t>
+  </si>
+  <si>
+    <t>NavigateToCurrentSavingPage</t>
+  </si>
+  <si>
+    <t>navigate</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Transaction Date</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Deposit</t>
+  </si>
+  <si>
+    <t>Entry ID</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Transaction ID</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Created By</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>S18</t>
+  </si>
+  <si>
+    <t>ASSET</t>
+  </si>
+  <si>
+    <t>mifos</t>
+  </si>
+  <si>
+    <t>Cash(1)</t>
+  </si>
+  <si>
+    <t>LIABILITY</t>
+  </si>
+  <si>
+    <t>Saving Control(21)</t>
+  </si>
+  <si>
+    <t>$ 2,000</t>
+  </si>
+  <si>
+    <t>View Receipt</t>
+  </si>
+  <si>
+    <t>$ 3,000</t>
+  </si>
+  <si>
+    <t>3,000</t>
+  </si>
+  <si>
+    <t>verifyTotalCollection</t>
+  </si>
+  <si>
+    <t>5,000   $</t>
   </si>
 </sst>
 </file>
@@ -212,9 +298,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="d\ mmm\ yy"/>
+    <numFmt numFmtId="166" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,6 +321,37 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -284,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -314,10 +431,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,12 +867,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24">
+        <v>42037</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="24">
+        <v>42037</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,10 +1288,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,8 +1328,8 @@
       <c r="A4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>58</v>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,16 +1337,293 @@
         <v>56</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="17">
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>8</v>
+      </c>
+      <c r="B2" s="20">
+        <v>42037</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="21">
+        <v>2000</v>
+      </c>
+      <c r="G2" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>35</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="24">
+        <v>42037</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>36</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="24">
+        <v>42037</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20">
+        <v>42037</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="21">
+        <v>3000</v>
+      </c>
+      <c r="F2" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
